--- a/biology/Zoologie/Favosites/Favosites.xlsx
+++ b/biology/Zoologie/Favosites/Favosites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Favosites  est un genre éteint de coraux de la famille des Favositidae, du sous-ordre  des Favositida et de l'ordre des Tabulata ou coraux tabulés, tous ces taxons étant éteints.
 Les différentes espèces se retrouvent de l'Ordovicien au Permien avec une répartition mondiale. Il s'agit du genre type de sa famille. L'espèce type est Favosites gothlandicus.
